--- a/Daily Transactions.xlsx
+++ b/Daily Transactions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>&lt;year&gt;</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Total Sales</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Store 1</t>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Daily Average</t>
-  </si>
-  <si>
-    <t>Avg Exclude Days Closed</t>
-  </si>
-  <si>
-    <t>January</t>
   </si>
   <si>
     <r>
@@ -75,6 +69,15 @@
     <r>
       <t xml:space="preserve"> (0 Daily)</t>
     </r>
+  </si>
+  <si>
+    <t>Avg Exclude Days Closed</t>
+  </si>
+  <si>
+    <t>% of Earnings</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
   <si>
     <t>February</t>
@@ -231,11 +234,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="m&quot;/&quot;d"/>
+    <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -259,7 +262,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
       <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -272,11 +283,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -352,20 +358,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -381,6 +373,20 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -409,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -420,101 +426,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="2" fontId="8" numFmtId="166" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="2" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="7" numFmtId="165" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="9" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -589,255 +599,306 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="26">
         <f>January!C33</f>
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="26">
         <f>January!D33</f>
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="26" t="str">
         <f>January!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E3" s="27" t="str">
+        <f t="shared" ref="E3:E14" si="1">B3/$B$17</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="26">
         <f>February!C30</f>
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="26">
         <f>February!D30</f>
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="26" t="str">
         <f>February!E30</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E4" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="29">
         <f>March!C33</f>
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="29">
         <f>March!D33</f>
         <v>0</v>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="29" t="str">
         <f>March!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29">
         <f>April!C32</f>
         <v>0</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="29">
         <f>April!D32</f>
         <v>0</v>
       </c>
-      <c r="D6" s="22" t="str">
+      <c r="D6" s="29" t="str">
         <f>April!E32</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="29">
         <f>May!C33</f>
         <v>0</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="29">
         <f>May!D33</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="29" t="str">
         <f>May!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="29">
         <f>June!C32</f>
         <v>0</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="29">
         <f>June!D32</f>
         <v>0</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="29" t="str">
         <f>June!E32</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="29">
         <f>July!C33</f>
         <v>0</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="29">
         <f>July!D33</f>
         <v>0</v>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="29" t="str">
         <f>July!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="A10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="29">
         <f>August!C33</f>
         <v>0</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="29">
         <f>August!D33</f>
         <v>0</v>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="29" t="str">
         <f>August!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="29">
         <f>September!C32</f>
         <v>0</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="29">
         <f>September!D32</f>
         <v>0</v>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="29" t="str">
         <f>September!E32</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="29">
         <f>October!C33</f>
         <v>0</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="29">
         <f>October!D33</f>
         <v>0</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="29" t="str">
         <f>October!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E12" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="29">
         <f>November!C32</f>
         <v>0</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="29">
         <f>November!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="29" t="str">
         <f>November!E32</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E13" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="29">
         <f>December!C33</f>
         <v>0</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="29">
         <f>December!D33</f>
         <v>0</v>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="29" t="str">
         <f>December!E33</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E14" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
+      <c r="C16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="22">
+      <c r="B17" s="29">
         <f>SUM(B3:B14)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="22" t="str">
-        <f t="shared" ref="C17:D17" si="1">AVERAGE( IF( C3:C14 &lt;&gt; 0 , C3:C14 ) )</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f t="shared" si="1"/>
+      <c r="C17" s="29" t="str">
+        <f t="shared" ref="C17:D17" si="2">AVERAGE( IF( C3:C14 &lt;&gt; 0 , C3:C14 ) )</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="29" t="str">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -865,47 +926,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42614.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42615.0</v>
       </c>
       <c r="B4" s="23">
@@ -919,13 +980,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42616.0</v>
       </c>
       <c r="B5" s="23">
@@ -939,13 +1000,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42617.0</v>
       </c>
       <c r="B6" s="23">
@@ -959,13 +1020,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42618.0</v>
       </c>
       <c r="B7" s="23">
@@ -979,13 +1040,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42619.0</v>
       </c>
       <c r="B8" s="23">
@@ -999,13 +1060,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42620.0</v>
       </c>
       <c r="B9" s="23">
@@ -1019,16 +1080,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42621.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -1039,13 +1100,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42622.0</v>
       </c>
       <c r="B11" s="23">
@@ -1059,13 +1120,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42623.0</v>
       </c>
       <c r="B12" s="23">
@@ -1079,13 +1140,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42624.0</v>
       </c>
       <c r="B13" s="23">
@@ -1099,13 +1160,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42625.0</v>
       </c>
       <c r="B14" s="23">
@@ -1119,13 +1180,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42626.0</v>
       </c>
       <c r="B15" s="23">
@@ -1139,13 +1200,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42627.0</v>
       </c>
       <c r="B16" s="23">
@@ -1159,16 +1220,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42628.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -1179,13 +1240,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42629.0</v>
       </c>
       <c r="B18" s="23">
@@ -1199,13 +1260,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42630.0</v>
       </c>
       <c r="B19" s="23">
@@ -1219,13 +1280,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42631.0</v>
       </c>
       <c r="B20" s="23">
@@ -1239,13 +1300,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42632.0</v>
       </c>
       <c r="B21" s="23">
@@ -1259,13 +1320,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42633.0</v>
       </c>
       <c r="B22" s="23">
@@ -1279,13 +1340,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42634.0</v>
       </c>
       <c r="B23" s="23">
@@ -1299,16 +1360,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42635.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -1319,13 +1380,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42636.0</v>
       </c>
       <c r="B25" s="23">
@@ -1339,13 +1400,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42637.0</v>
       </c>
       <c r="B26" s="23">
@@ -1359,13 +1420,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42638.0</v>
       </c>
       <c r="B27" s="23">
@@ -1379,13 +1440,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42639.0</v>
       </c>
       <c r="B28" s="23">
@@ -1399,13 +1460,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42640.0</v>
       </c>
       <c r="B29" s="23">
@@ -1419,13 +1480,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42641.0</v>
       </c>
       <c r="B30" s="23">
@@ -1439,16 +1500,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42642.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -1459,13 +1520,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42643.0</v>
       </c>
       <c r="B32" s="23">
@@ -1479,16 +1540,16 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1517,47 +1578,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42644.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42645.0</v>
       </c>
       <c r="B4" s="23">
@@ -1571,13 +1632,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42646.0</v>
       </c>
       <c r="B5" s="23">
@@ -1591,13 +1652,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42647.0</v>
       </c>
       <c r="B6" s="23">
@@ -1611,13 +1672,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42648.0</v>
       </c>
       <c r="B7" s="23">
@@ -1631,13 +1692,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42649.0</v>
       </c>
       <c r="B8" s="23">
@@ -1651,13 +1712,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42650.0</v>
       </c>
       <c r="B9" s="23">
@@ -1671,16 +1732,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42651.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -1691,13 +1752,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42652.0</v>
       </c>
       <c r="B11" s="23">
@@ -1711,13 +1772,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42653.0</v>
       </c>
       <c r="B12" s="23">
@@ -1731,13 +1792,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42654.0</v>
       </c>
       <c r="B13" s="23">
@@ -1751,13 +1812,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42655.0</v>
       </c>
       <c r="B14" s="23">
@@ -1771,13 +1832,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42656.0</v>
       </c>
       <c r="B15" s="23">
@@ -1791,13 +1852,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42657.0</v>
       </c>
       <c r="B16" s="23">
@@ -1811,16 +1872,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42658.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -1831,13 +1892,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42659.0</v>
       </c>
       <c r="B18" s="23">
@@ -1851,13 +1912,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42660.0</v>
       </c>
       <c r="B19" s="23">
@@ -1871,13 +1932,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42661.0</v>
       </c>
       <c r="B20" s="23">
@@ -1891,13 +1952,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42662.0</v>
       </c>
       <c r="B21" s="23">
@@ -1911,13 +1972,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42663.0</v>
       </c>
       <c r="B22" s="23">
@@ -1931,13 +1992,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42664.0</v>
       </c>
       <c r="B23" s="23">
@@ -1951,16 +2012,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42665.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -1971,13 +2032,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42666.0</v>
       </c>
       <c r="B25" s="23">
@@ -1991,13 +2052,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42667.0</v>
       </c>
       <c r="B26" s="23">
@@ -2011,13 +2072,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42668.0</v>
       </c>
       <c r="B27" s="23">
@@ -2031,13 +2092,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42669.0</v>
       </c>
       <c r="B28" s="23">
@@ -2051,13 +2112,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42670.0</v>
       </c>
       <c r="B29" s="23">
@@ -2071,13 +2132,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42671.0</v>
       </c>
       <c r="B30" s="23">
@@ -2091,16 +2152,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42672.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -2111,13 +2172,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42673.0</v>
       </c>
       <c r="B32" s="23">
@@ -2131,13 +2192,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41">
+      <c r="A33" s="42">
         <v>42674.0</v>
       </c>
       <c r="B33" s="23">
@@ -2151,7 +2212,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -2183,47 +2244,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>33</v>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42675.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42676.0</v>
       </c>
       <c r="B4" s="23">
@@ -2237,13 +2298,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42677.0</v>
       </c>
       <c r="B5" s="23">
@@ -2257,13 +2318,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42678.0</v>
       </c>
       <c r="B6" s="23">
@@ -2277,13 +2338,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42679.0</v>
       </c>
       <c r="B7" s="23">
@@ -2297,13 +2358,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42680.0</v>
       </c>
       <c r="B8" s="23">
@@ -2317,13 +2378,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42681.0</v>
       </c>
       <c r="B9" s="23">
@@ -2337,16 +2398,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42682.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -2357,13 +2418,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42683.0</v>
       </c>
       <c r="B11" s="23">
@@ -2377,13 +2438,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42684.0</v>
       </c>
       <c r="B12" s="23">
@@ -2397,13 +2458,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42685.0</v>
       </c>
       <c r="B13" s="23">
@@ -2417,13 +2478,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42686.0</v>
       </c>
       <c r="B14" s="23">
@@ -2437,13 +2498,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42687.0</v>
       </c>
       <c r="B15" s="23">
@@ -2457,13 +2518,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42688.0</v>
       </c>
       <c r="B16" s="23">
@@ -2477,16 +2538,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42689.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -2497,13 +2558,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42690.0</v>
       </c>
       <c r="B18" s="23">
@@ -2517,13 +2578,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42691.0</v>
       </c>
       <c r="B19" s="23">
@@ -2537,13 +2598,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42692.0</v>
       </c>
       <c r="B20" s="23">
@@ -2557,13 +2618,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42693.0</v>
       </c>
       <c r="B21" s="23">
@@ -2577,13 +2638,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42694.0</v>
       </c>
       <c r="B22" s="23">
@@ -2597,13 +2658,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42695.0</v>
       </c>
       <c r="B23" s="23">
@@ -2617,16 +2678,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42696.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -2637,13 +2698,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42697.0</v>
       </c>
       <c r="B25" s="23">
@@ -2657,13 +2718,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42698.0</v>
       </c>
       <c r="B26" s="23">
@@ -2677,13 +2738,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42699.0</v>
       </c>
       <c r="B27" s="23">
@@ -2697,13 +2758,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42700.0</v>
       </c>
       <c r="B28" s="23">
@@ -2717,13 +2778,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42701.0</v>
       </c>
       <c r="B29" s="23">
@@ -2737,13 +2798,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42702.0</v>
       </c>
       <c r="B30" s="23">
@@ -2757,16 +2818,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42703.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -2777,13 +2838,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42704.0</v>
       </c>
       <c r="B32" s="23">
@@ -2797,16 +2858,16 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2835,47 +2896,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42705.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42706.0</v>
       </c>
       <c r="B4" s="23">
@@ -2889,13 +2950,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42707.0</v>
       </c>
       <c r="B5" s="23">
@@ -2909,13 +2970,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42708.0</v>
       </c>
       <c r="B6" s="23">
@@ -2929,13 +2990,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42709.0</v>
       </c>
       <c r="B7" s="23">
@@ -2949,13 +3010,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42710.0</v>
       </c>
       <c r="B8" s="23">
@@ -2969,13 +3030,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42711.0</v>
       </c>
       <c r="B9" s="23">
@@ -2989,16 +3050,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42712.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -3009,13 +3070,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42713.0</v>
       </c>
       <c r="B11" s="23">
@@ -3029,13 +3090,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42714.0</v>
       </c>
       <c r="B12" s="23">
@@ -3049,13 +3110,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42715.0</v>
       </c>
       <c r="B13" s="23">
@@ -3069,13 +3130,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42716.0</v>
       </c>
       <c r="B14" s="23">
@@ -3089,13 +3150,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42717.0</v>
       </c>
       <c r="B15" s="23">
@@ -3109,13 +3170,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42718.0</v>
       </c>
       <c r="B16" s="23">
@@ -3129,16 +3190,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42719.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -3149,13 +3210,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42720.0</v>
       </c>
       <c r="B18" s="23">
@@ -3169,13 +3230,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42721.0</v>
       </c>
       <c r="B19" s="23">
@@ -3189,13 +3250,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42722.0</v>
       </c>
       <c r="B20" s="23">
@@ -3209,13 +3270,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42723.0</v>
       </c>
       <c r="B21" s="23">
@@ -3229,13 +3290,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42724.0</v>
       </c>
       <c r="B22" s="23">
@@ -3249,13 +3310,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42725.0</v>
       </c>
       <c r="B23" s="23">
@@ -3269,16 +3330,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42726.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -3289,13 +3350,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42727.0</v>
       </c>
       <c r="B25" s="23">
@@ -3309,13 +3370,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42728.0</v>
       </c>
       <c r="B26" s="23">
@@ -3329,13 +3390,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42729.0</v>
       </c>
       <c r="B27" s="23">
@@ -3349,13 +3410,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42730.0</v>
       </c>
       <c r="B28" s="23">
@@ -3369,13 +3430,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42731.0</v>
       </c>
       <c r="B29" s="23">
@@ -3389,13 +3450,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42732.0</v>
       </c>
       <c r="B30" s="23">
@@ -3409,16 +3470,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42733.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -3429,13 +3490,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42734.0</v>
       </c>
       <c r="B32" s="23">
@@ -3449,13 +3510,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41">
+      <c r="A33" s="42">
         <v>42735.0</v>
       </c>
       <c r="B33" s="23">
@@ -3469,7 +3530,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3501,37 +3562,37 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>42736.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="13">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3541,7 +3602,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>42737.0</v>
       </c>
       <c r="B4" s="23">
@@ -3555,13 +3616,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>42738.0</v>
       </c>
       <c r="B5" s="23">
@@ -3575,13 +3636,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>42739.0</v>
       </c>
       <c r="B6" s="23">
@@ -3595,13 +3656,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>42740.0</v>
       </c>
       <c r="B7" s="23">
@@ -3615,13 +3676,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>42741.0</v>
       </c>
       <c r="B8" s="23">
@@ -3635,13 +3696,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>42742.0</v>
       </c>
       <c r="B9" s="23">
@@ -3655,16 +3716,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
         <v>42743.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -3675,13 +3736,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>42744.0</v>
       </c>
       <c r="B11" s="23">
@@ -3695,13 +3756,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>42745.0</v>
       </c>
       <c r="B12" s="23">
@@ -3715,13 +3776,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21">
+      <c r="A13" s="22">
         <v>42746.0</v>
       </c>
       <c r="B13" s="23">
@@ -3735,13 +3796,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>42747.0</v>
       </c>
       <c r="B14" s="23">
@@ -3755,13 +3816,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21">
+      <c r="A15" s="22">
         <v>42748.0</v>
       </c>
       <c r="B15" s="23">
@@ -3775,13 +3836,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>42749.0</v>
       </c>
       <c r="B16" s="23">
@@ -3795,16 +3856,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>42750.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -3815,13 +3876,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="22">
         <v>42751.0</v>
       </c>
       <c r="B18" s="23">
@@ -3835,13 +3896,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21">
+      <c r="A19" s="22">
         <v>42752.0</v>
       </c>
       <c r="B19" s="23">
@@ -3855,13 +3916,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>42753.0</v>
       </c>
       <c r="B20" s="23">
@@ -3875,13 +3936,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21">
+      <c r="A21" s="22">
         <v>42754.0</v>
       </c>
       <c r="B21" s="23">
@@ -3895,13 +3956,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="22">
         <v>42755.0</v>
       </c>
       <c r="B22" s="23">
@@ -3915,13 +3976,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>42756.0</v>
       </c>
       <c r="B23" s="23">
@@ -3935,16 +3996,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>42757.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -3955,13 +4016,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21">
+      <c r="A25" s="22">
         <v>42758.0</v>
       </c>
       <c r="B25" s="23">
@@ -3975,13 +4036,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="22">
         <v>42759.0</v>
       </c>
       <c r="B26" s="23">
@@ -3995,13 +4056,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21">
+      <c r="A27" s="22">
         <v>42760.0</v>
       </c>
       <c r="B27" s="23">
@@ -4015,13 +4076,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="22">
         <v>42761.0</v>
       </c>
       <c r="B28" s="23">
@@ -4035,13 +4096,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21">
+      <c r="A29" s="22">
         <v>42762.0</v>
       </c>
       <c r="B29" s="23">
@@ -4055,13 +4116,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="22">
         <v>42763.0</v>
       </c>
       <c r="B30" s="23">
@@ -4075,16 +4136,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21">
+      <c r="A31" s="22">
         <v>42764.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -4095,13 +4156,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="22">
         <v>42765.0</v>
       </c>
       <c r="B32" s="23">
@@ -4115,13 +4176,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21">
+      <c r="A33" s="22">
         <v>42766.0</v>
       </c>
       <c r="B33" s="23">
@@ -4135,7 +4196,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4167,37 +4228,37 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>42767.0</v>
       </c>
-      <c r="B3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="13">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4207,10 +4268,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42768.0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>0.0</v>
       </c>
       <c r="C4" s="25">
@@ -4221,16 +4282,16 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>42769.0</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>0.0</v>
       </c>
       <c r="C5" s="25">
@@ -4241,16 +4302,16 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>42770.0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>0.0</v>
       </c>
       <c r="C6" s="25">
@@ -4261,16 +4322,16 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>42771.0</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="31">
         <v>0.0</v>
       </c>
       <c r="C7" s="25">
@@ -4281,16 +4342,16 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>42772.0</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>0.0</v>
       </c>
       <c r="C8" s="25">
@@ -4301,16 +4362,16 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>42773.0</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>0.0</v>
       </c>
       <c r="C9" s="25">
@@ -4321,16 +4382,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>42774.0</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -4341,13 +4402,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24">
+      <c r="A11" s="21">
         <v>42775.0</v>
       </c>
       <c r="B11" s="36">
@@ -4361,16 +4422,16 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>42776.0</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>0.0</v>
       </c>
       <c r="C12" s="25">
@@ -4381,16 +4442,16 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>42777.0</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>0.0</v>
       </c>
       <c r="C13" s="25">
@@ -4401,16 +4462,16 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>42778.0</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="31">
         <v>0.0</v>
       </c>
       <c r="C14" s="25">
@@ -4421,16 +4482,16 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>42779.0</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>0.0</v>
       </c>
       <c r="C15" s="25">
@@ -4441,16 +4502,16 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>42780.0</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>0.0</v>
       </c>
       <c r="C16" s="25">
@@ -4461,16 +4522,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>42781.0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -4481,16 +4542,16 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>42782.0</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>0.0</v>
       </c>
       <c r="C18" s="25">
@@ -4501,16 +4562,16 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>42783.0</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>0.0</v>
       </c>
       <c r="C19" s="25">
@@ -4521,16 +4582,16 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>42784.0</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>0.0</v>
       </c>
       <c r="C20" s="25">
@@ -4541,16 +4602,16 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>42785.0</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="31">
         <v>0.0</v>
       </c>
       <c r="C21" s="25">
@@ -4561,16 +4622,16 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>42786.0</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>0.0</v>
       </c>
       <c r="C22" s="25">
@@ -4581,16 +4642,16 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>42787.0</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>0.0</v>
       </c>
       <c r="C23" s="25">
@@ -4601,16 +4662,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>42788.0</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -4621,13 +4682,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>42789.0</v>
       </c>
       <c r="B25" s="23">
@@ -4641,13 +4702,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>42790.0</v>
       </c>
       <c r="B26" s="23">
@@ -4661,13 +4722,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>42791.0</v>
       </c>
       <c r="B27" s="23">
@@ -4681,13 +4742,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>42792.0</v>
       </c>
       <c r="B28" s="23">
@@ -4701,13 +4762,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>42793.0</v>
       </c>
       <c r="B29" s="23">
@@ -4721,13 +4782,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>42794.0</v>
       </c>
       <c r="B30" s="23">
@@ -4741,30 +4802,30 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="38"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32">
-      <c r="A32" s="38"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33">
-      <c r="A33" s="38"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4793,47 +4854,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>42430.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>42431.0</v>
       </c>
       <c r="B4" s="23">
@@ -4847,13 +4908,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>42432.0</v>
       </c>
       <c r="B5" s="23">
@@ -4867,13 +4928,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>42433.0</v>
       </c>
       <c r="B6" s="23">
@@ -4887,13 +4948,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>42434.0</v>
       </c>
       <c r="B7" s="23">
@@ -4907,13 +4968,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>42435.0</v>
       </c>
       <c r="B8" s="23">
@@ -4927,13 +4988,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>42436.0</v>
       </c>
       <c r="B9" s="23">
@@ -4947,16 +5008,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>42437.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -4967,13 +5028,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>42438.0</v>
       </c>
       <c r="B11" s="23">
@@ -4987,13 +5048,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>42439.0</v>
       </c>
       <c r="B12" s="23">
@@ -5007,13 +5068,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>42440.0</v>
       </c>
       <c r="B13" s="23">
@@ -5027,13 +5088,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>42441.0</v>
       </c>
       <c r="B14" s="23">
@@ -5047,13 +5108,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>42442.0</v>
       </c>
       <c r="B15" s="23">
@@ -5067,13 +5128,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>42443.0</v>
       </c>
       <c r="B16" s="23">
@@ -5087,16 +5148,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>42444.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -5107,13 +5168,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>42445.0</v>
       </c>
       <c r="B18" s="23">
@@ -5127,13 +5188,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>42446.0</v>
       </c>
       <c r="B19" s="23">
@@ -5147,13 +5208,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>42447.0</v>
       </c>
       <c r="B20" s="23">
@@ -5167,13 +5228,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>42448.0</v>
       </c>
       <c r="B21" s="23">
@@ -5187,13 +5248,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>42449.0</v>
       </c>
       <c r="B22" s="23">
@@ -5207,13 +5268,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>42450.0</v>
       </c>
       <c r="B23" s="23">
@@ -5227,16 +5288,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>42451.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -5247,13 +5308,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>42452.0</v>
       </c>
       <c r="B25" s="23">
@@ -5267,13 +5328,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>42453.0</v>
       </c>
       <c r="B26" s="23">
@@ -5287,13 +5348,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="37">
+      <c r="A27" s="43">
         <v>42454.0</v>
       </c>
       <c r="B27" s="23">
@@ -5307,13 +5368,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>42455.0</v>
       </c>
       <c r="B28" s="23">
@@ -5327,13 +5388,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>42456.0</v>
       </c>
       <c r="B29" s="23">
@@ -5347,13 +5408,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>42457.0</v>
       </c>
       <c r="B30" s="23">
@@ -5367,16 +5428,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>42458.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -5387,13 +5448,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>42459.0</v>
       </c>
       <c r="B32" s="23">
@@ -5407,13 +5468,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>42460.0</v>
       </c>
       <c r="B33" s="23">
@@ -5427,7 +5488,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -5459,47 +5520,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>42461.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>42462.0</v>
       </c>
       <c r="B4" s="23">
@@ -5513,13 +5574,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>42463.0</v>
       </c>
       <c r="B5" s="23">
@@ -5533,13 +5594,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>42464.0</v>
       </c>
       <c r="B6" s="23">
@@ -5553,13 +5614,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>42465.0</v>
       </c>
       <c r="B7" s="23">
@@ -5573,13 +5634,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>42466.0</v>
       </c>
       <c r="B8" s="23">
@@ -5593,13 +5654,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>42467.0</v>
       </c>
       <c r="B9" s="23">
@@ -5613,16 +5674,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>42468.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -5633,13 +5694,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>42469.0</v>
       </c>
       <c r="B11" s="23">
@@ -5653,13 +5714,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>42470.0</v>
       </c>
       <c r="B12" s="23">
@@ -5673,13 +5734,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>42471.0</v>
       </c>
       <c r="B13" s="23">
@@ -5693,13 +5754,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>42472.0</v>
       </c>
       <c r="B14" s="23">
@@ -5713,13 +5774,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>42473.0</v>
       </c>
       <c r="B15" s="23">
@@ -5733,13 +5794,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>42474.0</v>
       </c>
       <c r="B16" s="23">
@@ -5753,16 +5814,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>42475.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -5773,13 +5834,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>42476.0</v>
       </c>
       <c r="B18" s="23">
@@ -5793,13 +5854,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>42477.0</v>
       </c>
       <c r="B19" s="23">
@@ -5813,13 +5874,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>42478.0</v>
       </c>
       <c r="B20" s="23">
@@ -5833,13 +5894,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>42479.0</v>
       </c>
       <c r="B21" s="23">
@@ -5853,13 +5914,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="37">
+      <c r="A22" s="43">
         <v>42480.0</v>
       </c>
       <c r="B22" s="23">
@@ -5873,13 +5934,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>42481.0</v>
       </c>
       <c r="B23" s="23">
@@ -5893,16 +5954,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>42482.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -5913,13 +5974,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>42483.0</v>
       </c>
       <c r="B25" s="23">
@@ -5933,13 +5994,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>42484.0</v>
       </c>
       <c r="B26" s="23">
@@ -5953,13 +6014,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>42485.0</v>
       </c>
       <c r="B27" s="23">
@@ -5973,13 +6034,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>42486.0</v>
       </c>
       <c r="B28" s="23">
@@ -5993,13 +6054,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>42487.0</v>
       </c>
       <c r="B29" s="23">
@@ -6013,13 +6074,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>42488.0</v>
       </c>
       <c r="B30" s="23">
@@ -6033,16 +6094,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>42489.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -6053,13 +6114,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>42490.0</v>
       </c>
       <c r="B32" s="23">
@@ -6073,16 +6134,16 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6111,47 +6172,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42491.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42492.0</v>
       </c>
       <c r="B4" s="23">
@@ -6165,13 +6226,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42493.0</v>
       </c>
       <c r="B5" s="23">
@@ -6185,13 +6246,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42494.0</v>
       </c>
       <c r="B6" s="23">
@@ -6205,13 +6266,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42495.0</v>
       </c>
       <c r="B7" s="23">
@@ -6225,13 +6286,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42496.0</v>
       </c>
       <c r="B8" s="23">
@@ -6245,13 +6306,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42497.0</v>
       </c>
       <c r="B9" s="23">
@@ -6265,16 +6326,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42498.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -6285,13 +6346,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42499.0</v>
       </c>
       <c r="B11" s="23">
@@ -6305,13 +6366,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42500.0</v>
       </c>
       <c r="B12" s="23">
@@ -6325,13 +6386,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42501.0</v>
       </c>
       <c r="B13" s="23">
@@ -6345,13 +6406,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42502.0</v>
       </c>
       <c r="B14" s="23">
@@ -6365,13 +6426,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42503.0</v>
       </c>
       <c r="B15" s="23">
@@ -6385,13 +6446,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42504.0</v>
       </c>
       <c r="B16" s="23">
@@ -6405,16 +6466,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42505.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -6425,13 +6486,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42506.0</v>
       </c>
       <c r="B18" s="23">
@@ -6445,13 +6506,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42507.0</v>
       </c>
       <c r="B19" s="23">
@@ -6465,13 +6526,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42508.0</v>
       </c>
       <c r="B20" s="23">
@@ -6485,13 +6546,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42509.0</v>
       </c>
       <c r="B21" s="23">
@@ -6505,13 +6566,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42510.0</v>
       </c>
       <c r="B22" s="23">
@@ -6525,13 +6586,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42511.0</v>
       </c>
       <c r="B23" s="23">
@@ -6545,16 +6606,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42512.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -6565,13 +6626,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42513.0</v>
       </c>
       <c r="B25" s="23">
@@ -6585,13 +6646,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42514.0</v>
       </c>
       <c r="B26" s="23">
@@ -6605,13 +6666,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42515.0</v>
       </c>
       <c r="B27" s="23">
@@ -6625,13 +6686,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42516.0</v>
       </c>
       <c r="B28" s="23">
@@ -6645,13 +6706,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42517.0</v>
       </c>
       <c r="B29" s="23">
@@ -6665,13 +6726,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42518.0</v>
       </c>
       <c r="B30" s="23">
@@ -6685,16 +6746,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42519.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -6705,13 +6766,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42520.0</v>
       </c>
       <c r="B32" s="23">
@@ -6725,13 +6786,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <v>42521.0</v>
       </c>
       <c r="B33" s="23">
@@ -6745,7 +6806,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -6777,47 +6838,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>28</v>
+      <c r="E2" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42522.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42523.0</v>
       </c>
       <c r="B4" s="23">
@@ -6831,13 +6892,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42524.0</v>
       </c>
       <c r="B5" s="23">
@@ -6851,13 +6912,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42525.0</v>
       </c>
       <c r="B6" s="23">
@@ -6871,13 +6932,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42526.0</v>
       </c>
       <c r="B7" s="23">
@@ -6891,13 +6952,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42527.0</v>
       </c>
       <c r="B8" s="23">
@@ -6911,13 +6972,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42528.0</v>
       </c>
       <c r="B9" s="23">
@@ -6931,16 +6992,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42529.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -6951,13 +7012,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42530.0</v>
       </c>
       <c r="B11" s="23">
@@ -6971,13 +7032,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42531.0</v>
       </c>
       <c r="B12" s="23">
@@ -6991,13 +7052,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42532.0</v>
       </c>
       <c r="B13" s="23">
@@ -7011,13 +7072,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42533.0</v>
       </c>
       <c r="B14" s="23">
@@ -7031,13 +7092,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42534.0</v>
       </c>
       <c r="B15" s="23">
@@ -7051,13 +7112,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42535.0</v>
       </c>
       <c r="B16" s="23">
@@ -7071,16 +7132,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42536.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -7091,13 +7152,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42537.0</v>
       </c>
       <c r="B18" s="23">
@@ -7111,13 +7172,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42538.0</v>
       </c>
       <c r="B19" s="23">
@@ -7131,13 +7192,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42539.0</v>
       </c>
       <c r="B20" s="23">
@@ -7151,13 +7212,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42540.0</v>
       </c>
       <c r="B21" s="23">
@@ -7171,13 +7232,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42541.0</v>
       </c>
       <c r="B22" s="23">
@@ -7191,13 +7252,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42542.0</v>
       </c>
       <c r="B23" s="23">
@@ -7211,16 +7272,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42543.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -7231,13 +7292,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42544.0</v>
       </c>
       <c r="B25" s="23">
@@ -7251,13 +7312,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42545.0</v>
       </c>
       <c r="B26" s="23">
@@ -7271,13 +7332,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42546.0</v>
       </c>
       <c r="B27" s="23">
@@ -7291,13 +7352,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42547.0</v>
       </c>
       <c r="B28" s="23">
@@ -7311,13 +7372,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42548.0</v>
       </c>
       <c r="B29" s="23">
@@ -7331,13 +7392,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42549.0</v>
       </c>
       <c r="B30" s="23">
@@ -7351,16 +7412,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42550.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -7371,13 +7432,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42551.0</v>
       </c>
       <c r="B32" s="23">
@@ -7391,16 +7452,16 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7429,47 +7490,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42552.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42553.0</v>
       </c>
       <c r="B4" s="23">
@@ -7483,13 +7544,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42554.0</v>
       </c>
       <c r="B5" s="23">
@@ -7503,13 +7564,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42555.0</v>
       </c>
       <c r="B6" s="23">
@@ -7523,13 +7584,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42556.0</v>
       </c>
       <c r="B7" s="23">
@@ -7543,13 +7604,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42557.0</v>
       </c>
       <c r="B8" s="23">
@@ -7563,13 +7624,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42558.0</v>
       </c>
       <c r="B9" s="23">
@@ -7583,16 +7644,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42559.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -7603,13 +7664,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42560.0</v>
       </c>
       <c r="B11" s="23">
@@ -7623,13 +7684,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42561.0</v>
       </c>
       <c r="B12" s="23">
@@ -7643,13 +7704,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42562.0</v>
       </c>
       <c r="B13" s="23">
@@ -7663,13 +7724,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42563.0</v>
       </c>
       <c r="B14" s="23">
@@ -7683,13 +7744,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42564.0</v>
       </c>
       <c r="B15" s="23">
@@ -7703,13 +7764,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42565.0</v>
       </c>
       <c r="B16" s="23">
@@ -7723,16 +7784,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42566.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -7743,13 +7804,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42567.0</v>
       </c>
       <c r="B18" s="23">
@@ -7763,13 +7824,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42568.0</v>
       </c>
       <c r="B19" s="23">
@@ -7783,13 +7844,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42569.0</v>
       </c>
       <c r="B20" s="23">
@@ -7803,13 +7864,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42570.0</v>
       </c>
       <c r="B21" s="23">
@@ -7823,13 +7884,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42571.0</v>
       </c>
       <c r="B22" s="23">
@@ -7843,13 +7904,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42572.0</v>
       </c>
       <c r="B23" s="23">
@@ -7863,16 +7924,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42573.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -7883,13 +7944,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42574.0</v>
       </c>
       <c r="B25" s="23">
@@ -7903,13 +7964,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42575.0</v>
       </c>
       <c r="B26" s="23">
@@ -7923,13 +7984,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42576.0</v>
       </c>
       <c r="B27" s="23">
@@ -7943,13 +8004,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42577.0</v>
       </c>
       <c r="B28" s="23">
@@ -7963,13 +8024,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42578.0</v>
       </c>
       <c r="B29" s="23">
@@ -7983,13 +8044,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42579.0</v>
       </c>
       <c r="B30" s="23">
@@ -8003,16 +8064,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42580.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -8023,13 +8084,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42581.0</v>
       </c>
       <c r="B32" s="23">
@@ -8043,13 +8104,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41">
+      <c r="A33" s="42">
         <v>42582.0</v>
       </c>
       <c r="B33" s="23">
@@ -8063,7 +8124,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -8095,47 +8156,47 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>42583.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>42584.0</v>
       </c>
       <c r="B4" s="23">
@@ -8149,13 +8210,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="28" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>42585.0</v>
       </c>
       <c r="B5" s="23">
@@ -8169,13 +8230,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="28" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>42586.0</v>
       </c>
       <c r="B6" s="23">
@@ -8189,13 +8250,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="28" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>42587.0</v>
       </c>
       <c r="B7" s="23">
@@ -8209,13 +8270,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="28" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>42588.0</v>
       </c>
       <c r="B8" s="23">
@@ -8229,13 +8290,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="28" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42589.0</v>
       </c>
       <c r="B9" s="23">
@@ -8249,16 +8310,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="28" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>42590.0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -8269,13 +8330,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="28" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="42">
         <v>42591.0</v>
       </c>
       <c r="B11" s="23">
@@ -8289,13 +8350,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="28" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>42592.0</v>
       </c>
       <c r="B12" s="23">
@@ -8309,13 +8370,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="28" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="42">
         <v>42593.0</v>
       </c>
       <c r="B13" s="23">
@@ -8329,13 +8390,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="28" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>42594.0</v>
       </c>
       <c r="B14" s="23">
@@ -8349,13 +8410,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="28" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41">
+      <c r="A15" s="42">
         <v>42595.0</v>
       </c>
       <c r="B15" s="23">
@@ -8369,13 +8430,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="28" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>42596.0</v>
       </c>
       <c r="B16" s="23">
@@ -8389,16 +8450,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="28" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>42597.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -8409,13 +8470,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="28" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>42598.0</v>
       </c>
       <c r="B18" s="23">
@@ -8429,13 +8490,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="28" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41">
+      <c r="A19" s="42">
         <v>42599.0</v>
       </c>
       <c r="B19" s="23">
@@ -8449,13 +8510,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="28" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>42600.0</v>
       </c>
       <c r="B20" s="23">
@@ -8469,13 +8530,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="28" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41">
+      <c r="A21" s="42">
         <v>42601.0</v>
       </c>
       <c r="B21" s="23">
@@ -8489,13 +8550,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="28" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>42602.0</v>
       </c>
       <c r="B22" s="23">
@@ -8509,13 +8570,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="28" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41">
+      <c r="A23" s="42">
         <v>42603.0</v>
       </c>
       <c r="B23" s="23">
@@ -8529,16 +8590,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="28" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>42604.0</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -8549,13 +8610,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="28" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41">
+      <c r="A25" s="42">
         <v>42605.0</v>
       </c>
       <c r="B25" s="23">
@@ -8569,13 +8630,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="28" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>42606.0</v>
       </c>
       <c r="B26" s="23">
@@ -8589,13 +8650,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="28" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>42607.0</v>
       </c>
       <c r="B27" s="23">
@@ -8609,13 +8670,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="28" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>42608.0</v>
       </c>
       <c r="B28" s="23">
@@ -8629,13 +8690,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="28" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41">
+      <c r="A29" s="42">
         <v>42609.0</v>
       </c>
       <c r="B29" s="23">
@@ -8649,13 +8710,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="28" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>42610.0</v>
       </c>
       <c r="B30" s="23">
@@ -8669,16 +8730,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="28" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41">
+      <c r="A31" s="42">
         <v>42611.0</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="13">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -8689,13 +8750,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="28" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>42612.0</v>
       </c>
       <c r="B32" s="23">
@@ -8709,13 +8770,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="28" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41">
+      <c r="A33" s="42">
         <v>42613.0</v>
       </c>
       <c r="B33" s="23">
@@ -8729,7 +8790,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>

--- a/Daily Transactions.xlsx
+++ b/Daily Transactions.xlsx
@@ -23,18 +23,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+  <si>
+    <t>Year:</t>
+  </si>
   <si>
     <t>&lt;year&gt;</t>
   </si>
   <si>
-    <t>Year:</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Cumulative Total</t>
+  </si>
+  <si>
+    <t>Daily Average</t>
+  </si>
+  <si>
+    <t>Avg Exclude Days Closed</t>
+  </si>
+  <si>
+    <t>% of Earnings</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
   <si>
     <t>Total Sales</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>February</t>
   </si>
   <si>
     <t>Date</t>
@@ -43,10 +61,7 @@
     <t>Store 1</t>
   </si>
   <si>
-    <t>Cumulative Total</t>
-  </si>
-  <si>
-    <t>Daily Average</t>
+    <t>March</t>
   </si>
   <si>
     <r>
@@ -69,21 +84,6 @@
     <r>
       <t xml:space="preserve"> (0 Daily)</t>
     </r>
-  </si>
-  <si>
-    <t>Avg Exclude Days Closed</t>
-  </si>
-  <si>
-    <t>% of Earnings</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
   </si>
   <si>
     <t>April</t>
@@ -234,22 +234,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -258,11 +249,21 @@
       <sz val="12.0"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -273,11 +274,6 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -302,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,16 +306,16 @@
       <bottom/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -378,20 +374,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -415,117 +397,116 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="2" fontId="8" numFmtId="166" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="2" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,275 +580,279 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="8">
+        <f>January!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <f>January!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>January!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f t="shared" ref="E3:E14" si="1">B3/$B$17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <f>February!C30</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>February!D30</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>February!E30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26">
-        <f>January!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="26">
-        <f>January!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="26" t="str">
-        <f>January!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="27" t="str">
-        <f t="shared" ref="E3:E14" si="1">B3/$B$17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="26">
-        <f>February!C30</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <f>February!D30</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="str">
-        <f>February!E30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="27" t="str">
+      <c r="B5" s="17">
+        <f>March!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <f>March!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f>March!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="29">
-        <f>March!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
-        <f>March!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="29" t="str">
-        <f>March!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="27" t="str">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17">
+        <f>April!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <f>April!D32</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>April!E32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="29">
-        <f>April!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
-        <f>April!D32</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="29" t="str">
-        <f>April!E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="27" t="str">
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17">
+        <f>May!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <f>May!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>May!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="29">
-        <f>May!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="29">
-        <f>May!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="29" t="str">
-        <f>May!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="27" t="str">
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="17">
+        <f>June!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <f>June!D32</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f>June!E32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="29">
-        <f>June!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
-        <f>June!D32</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>June!E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="27" t="str">
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="17">
+        <f>July!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <f>July!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>July!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="29">
-        <f>July!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
-        <f>July!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="29" t="str">
-        <f>July!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="27" t="str">
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="17">
+        <f>August!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <f>August!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>August!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="29">
-        <f>August!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
-        <f>August!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f>August!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="27" t="str">
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="17">
+        <f>September!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <f>September!D32</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>September!E32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="29">
-        <f>September!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="29">
-        <f>September!D32</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>September!E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="27" t="str">
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="17">
+        <f>October!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <f>October!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>October!E33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="29">
-        <f>October!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="29">
-        <f>October!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="29" t="str">
-        <f>October!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="27" t="str">
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17">
+        <f>November!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <f>November!D32</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>November!E32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="29">
-        <f>November!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="29">
-        <f>November!D32</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="29" t="str">
-        <f>November!E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="17">
         <f>December!C33</f>
         <v>0</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="17">
         <f>December!D33</f>
         <v>0</v>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="17" t="str">
         <f>December!E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -884,20 +869,20 @@
       <c r="C16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="29">
+      <c r="B17" s="17">
         <f>SUM(B3:B14)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="17" t="str">
         <f t="shared" ref="C17:D17" si="2">AVERAGE( IF( C3:C14 &lt;&gt; 0 , C3:C14 ) )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -918,38 +903,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42614.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -960,13 +946,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42615.0</v>
       </c>
       <c r="B4" s="23">
@@ -980,13 +966,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42616.0</v>
       </c>
       <c r="B5" s="23">
@@ -1000,13 +986,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42617.0</v>
       </c>
       <c r="B6" s="23">
@@ -1020,13 +1006,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42618.0</v>
       </c>
       <c r="B7" s="23">
@@ -1040,13 +1026,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42619.0</v>
       </c>
       <c r="B8" s="23">
@@ -1060,13 +1046,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42620.0</v>
       </c>
       <c r="B9" s="23">
@@ -1080,16 +1066,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42621.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -1100,13 +1086,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42622.0</v>
       </c>
       <c r="B11" s="23">
@@ -1120,13 +1106,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42623.0</v>
       </c>
       <c r="B12" s="23">
@@ -1140,13 +1126,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42624.0</v>
       </c>
       <c r="B13" s="23">
@@ -1160,13 +1146,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42625.0</v>
       </c>
       <c r="B14" s="23">
@@ -1180,13 +1166,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42626.0</v>
       </c>
       <c r="B15" s="23">
@@ -1200,13 +1186,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42627.0</v>
       </c>
       <c r="B16" s="23">
@@ -1220,16 +1206,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42628.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -1240,13 +1226,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42629.0</v>
       </c>
       <c r="B18" s="23">
@@ -1260,13 +1246,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42630.0</v>
       </c>
       <c r="B19" s="23">
@@ -1280,13 +1266,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42631.0</v>
       </c>
       <c r="B20" s="23">
@@ -1300,13 +1286,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42632.0</v>
       </c>
       <c r="B21" s="23">
@@ -1320,13 +1306,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42633.0</v>
       </c>
       <c r="B22" s="23">
@@ -1340,13 +1326,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42634.0</v>
       </c>
       <c r="B23" s="23">
@@ -1360,16 +1346,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42635.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -1380,13 +1366,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42636.0</v>
       </c>
       <c r="B25" s="23">
@@ -1400,13 +1386,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42637.0</v>
       </c>
       <c r="B26" s="23">
@@ -1420,13 +1406,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42638.0</v>
       </c>
       <c r="B27" s="23">
@@ -1440,13 +1426,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42639.0</v>
       </c>
       <c r="B28" s="23">
@@ -1460,13 +1446,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42640.0</v>
       </c>
       <c r="B29" s="23">
@@ -1480,13 +1466,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42641.0</v>
       </c>
       <c r="B30" s="23">
@@ -1500,16 +1486,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42642.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -1520,13 +1506,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42643.0</v>
       </c>
       <c r="B32" s="23">
@@ -1540,13 +1526,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -1570,38 +1556,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42644.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -1612,13 +1599,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42645.0</v>
       </c>
       <c r="B4" s="23">
@@ -1632,13 +1619,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42646.0</v>
       </c>
       <c r="B5" s="23">
@@ -1652,13 +1639,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42647.0</v>
       </c>
       <c r="B6" s="23">
@@ -1672,13 +1659,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42648.0</v>
       </c>
       <c r="B7" s="23">
@@ -1692,13 +1679,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42649.0</v>
       </c>
       <c r="B8" s="23">
@@ -1712,13 +1699,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42650.0</v>
       </c>
       <c r="B9" s="23">
@@ -1732,16 +1719,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42651.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -1752,13 +1739,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42652.0</v>
       </c>
       <c r="B11" s="23">
@@ -1772,13 +1759,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42653.0</v>
       </c>
       <c r="B12" s="23">
@@ -1792,13 +1779,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42654.0</v>
       </c>
       <c r="B13" s="23">
@@ -1812,13 +1799,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42655.0</v>
       </c>
       <c r="B14" s="23">
@@ -1832,13 +1819,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42656.0</v>
       </c>
       <c r="B15" s="23">
@@ -1852,13 +1839,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42657.0</v>
       </c>
       <c r="B16" s="23">
@@ -1872,16 +1859,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42658.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -1892,13 +1879,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42659.0</v>
       </c>
       <c r="B18" s="23">
@@ -1912,13 +1899,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42660.0</v>
       </c>
       <c r="B19" s="23">
@@ -1932,13 +1919,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42661.0</v>
       </c>
       <c r="B20" s="23">
@@ -1952,13 +1939,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42662.0</v>
       </c>
       <c r="B21" s="23">
@@ -1972,13 +1959,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42663.0</v>
       </c>
       <c r="B22" s="23">
@@ -1992,13 +1979,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42664.0</v>
       </c>
       <c r="B23" s="23">
@@ -2012,16 +1999,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42665.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -2032,13 +2019,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42666.0</v>
       </c>
       <c r="B25" s="23">
@@ -2052,13 +2039,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42667.0</v>
       </c>
       <c r="B26" s="23">
@@ -2072,13 +2059,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42668.0</v>
       </c>
       <c r="B27" s="23">
@@ -2092,13 +2079,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42669.0</v>
       </c>
       <c r="B28" s="23">
@@ -2112,13 +2099,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42670.0</v>
       </c>
       <c r="B29" s="23">
@@ -2132,13 +2119,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42671.0</v>
       </c>
       <c r="B30" s="23">
@@ -2152,16 +2139,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42672.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -2172,13 +2159,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42673.0</v>
       </c>
       <c r="B32" s="23">
@@ -2192,13 +2179,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42">
+      <c r="A33" s="44">
         <v>42674.0</v>
       </c>
       <c r="B33" s="23">
@@ -2212,7 +2199,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -2236,38 +2223,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42675.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -2278,13 +2266,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42676.0</v>
       </c>
       <c r="B4" s="23">
@@ -2298,13 +2286,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42677.0</v>
       </c>
       <c r="B5" s="23">
@@ -2318,13 +2306,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42678.0</v>
       </c>
       <c r="B6" s="23">
@@ -2338,13 +2326,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42679.0</v>
       </c>
       <c r="B7" s="23">
@@ -2358,13 +2346,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42680.0</v>
       </c>
       <c r="B8" s="23">
@@ -2378,13 +2366,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42681.0</v>
       </c>
       <c r="B9" s="23">
@@ -2398,16 +2386,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42682.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -2418,13 +2406,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42683.0</v>
       </c>
       <c r="B11" s="23">
@@ -2438,13 +2426,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42684.0</v>
       </c>
       <c r="B12" s="23">
@@ -2458,13 +2446,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42685.0</v>
       </c>
       <c r="B13" s="23">
@@ -2478,13 +2466,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42686.0</v>
       </c>
       <c r="B14" s="23">
@@ -2498,13 +2486,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42687.0</v>
       </c>
       <c r="B15" s="23">
@@ -2518,13 +2506,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42688.0</v>
       </c>
       <c r="B16" s="23">
@@ -2538,16 +2526,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42689.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -2558,13 +2546,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42690.0</v>
       </c>
       <c r="B18" s="23">
@@ -2578,13 +2566,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42691.0</v>
       </c>
       <c r="B19" s="23">
@@ -2598,13 +2586,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42692.0</v>
       </c>
       <c r="B20" s="23">
@@ -2618,13 +2606,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42693.0</v>
       </c>
       <c r="B21" s="23">
@@ -2638,13 +2626,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42694.0</v>
       </c>
       <c r="B22" s="23">
@@ -2658,13 +2646,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42695.0</v>
       </c>
       <c r="B23" s="23">
@@ -2678,16 +2666,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42696.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -2698,13 +2686,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42697.0</v>
       </c>
       <c r="B25" s="23">
@@ -2718,13 +2706,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42698.0</v>
       </c>
       <c r="B26" s="23">
@@ -2738,13 +2726,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42699.0</v>
       </c>
       <c r="B27" s="23">
@@ -2758,13 +2746,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42700.0</v>
       </c>
       <c r="B28" s="23">
@@ -2778,13 +2766,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42701.0</v>
       </c>
       <c r="B29" s="23">
@@ -2798,13 +2786,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42702.0</v>
       </c>
       <c r="B30" s="23">
@@ -2818,16 +2806,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42703.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -2838,13 +2826,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42704.0</v>
       </c>
       <c r="B32" s="23">
@@ -2858,13 +2846,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -2888,38 +2876,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42705.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -2930,13 +2919,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42706.0</v>
       </c>
       <c r="B4" s="23">
@@ -2950,13 +2939,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42707.0</v>
       </c>
       <c r="B5" s="23">
@@ -2970,13 +2959,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42708.0</v>
       </c>
       <c r="B6" s="23">
@@ -2990,13 +2979,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42709.0</v>
       </c>
       <c r="B7" s="23">
@@ -3010,13 +2999,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42710.0</v>
       </c>
       <c r="B8" s="23">
@@ -3030,13 +3019,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42711.0</v>
       </c>
       <c r="B9" s="23">
@@ -3050,16 +3039,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42712.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -3070,13 +3059,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42713.0</v>
       </c>
       <c r="B11" s="23">
@@ -3090,13 +3079,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42714.0</v>
       </c>
       <c r="B12" s="23">
@@ -3110,13 +3099,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42715.0</v>
       </c>
       <c r="B13" s="23">
@@ -3130,13 +3119,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42716.0</v>
       </c>
       <c r="B14" s="23">
@@ -3150,13 +3139,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42717.0</v>
       </c>
       <c r="B15" s="23">
@@ -3170,13 +3159,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42718.0</v>
       </c>
       <c r="B16" s="23">
@@ -3190,16 +3179,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42719.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -3210,13 +3199,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42720.0</v>
       </c>
       <c r="B18" s="23">
@@ -3230,13 +3219,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42721.0</v>
       </c>
       <c r="B19" s="23">
@@ -3250,13 +3239,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42722.0</v>
       </c>
       <c r="B20" s="23">
@@ -3270,13 +3259,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42723.0</v>
       </c>
       <c r="B21" s="23">
@@ -3290,13 +3279,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42724.0</v>
       </c>
       <c r="B22" s="23">
@@ -3310,13 +3299,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42725.0</v>
       </c>
       <c r="B23" s="23">
@@ -3330,16 +3319,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42726.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -3350,13 +3339,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42727.0</v>
       </c>
       <c r="B25" s="23">
@@ -3370,13 +3359,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42728.0</v>
       </c>
       <c r="B26" s="23">
@@ -3390,13 +3379,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42729.0</v>
       </c>
       <c r="B27" s="23">
@@ -3410,13 +3399,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42730.0</v>
       </c>
       <c r="B28" s="23">
@@ -3430,13 +3419,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42731.0</v>
       </c>
       <c r="B29" s="23">
@@ -3450,13 +3439,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42732.0</v>
       </c>
       <c r="B30" s="23">
@@ -3470,16 +3459,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42733.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -3490,13 +3479,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42734.0</v>
       </c>
       <c r="B32" s="23">
@@ -3510,13 +3499,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42">
+      <c r="A33" s="44">
         <v>42735.0</v>
       </c>
       <c r="B33" s="23">
@@ -3530,7 +3519,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3554,49 +3543,50 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>8</v>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>42736.0</v>
       </c>
-      <c r="B3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="19">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <f>C3</f>
         <v>0</v>
       </c>
@@ -3616,7 +3606,7 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3636,7 +3626,7 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3656,7 +3646,7 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3676,7 +3666,7 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3696,7 +3686,7 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3716,7 +3706,7 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3725,7 +3715,7 @@
       <c r="A10" s="22">
         <v>42743.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -3736,7 +3726,7 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3756,7 +3746,7 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3776,7 +3766,7 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3796,7 +3786,7 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3816,7 +3806,7 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3836,7 +3826,7 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3856,7 +3846,7 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3865,7 +3855,7 @@
       <c r="A17" s="22">
         <v>42750.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -3876,7 +3866,7 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3896,7 +3886,7 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3916,7 +3906,7 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3936,7 +3926,7 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3956,7 +3946,7 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3976,7 +3966,7 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -3996,7 +3986,7 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4005,7 +3995,7 @@
       <c r="A24" s="22">
         <v>42757.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -4016,7 +4006,7 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4036,7 +4026,7 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4056,7 +4046,7 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4076,7 +4066,7 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4096,7 +4086,7 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4116,7 +4106,7 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4136,7 +4126,7 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4145,7 +4135,7 @@
       <c r="A31" s="22">
         <v>42764.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -4156,7 +4146,7 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4176,7 +4166,7 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4196,7 +4186,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -4220,58 +4210,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="26">
         <v>42767.0</v>
       </c>
-      <c r="B3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="19">
         <f t="shared" ref="C3:D3" si="1">B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42768.0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="29">
         <v>0.0</v>
       </c>
       <c r="C4" s="25">
@@ -4282,16 +4273,16 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>42769.0</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="29">
         <v>0.0</v>
       </c>
       <c r="C5" s="25">
@@ -4302,16 +4293,16 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>42770.0</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="29">
         <v>0.0</v>
       </c>
       <c r="C6" s="25">
@@ -4322,16 +4313,16 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>42771.0</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="36">
         <v>0.0</v>
       </c>
       <c r="C7" s="25">
@@ -4342,16 +4333,16 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>42772.0</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="29">
         <v>0.0</v>
       </c>
       <c r="C8" s="25">
@@ -4362,16 +4353,16 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>42773.0</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="29">
         <v>0.0</v>
       </c>
       <c r="C9" s="25">
@@ -4382,16 +4373,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>42774.0</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="29">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -4402,16 +4393,16 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21">
+      <c r="A11" s="28">
         <v>42775.0</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="38">
         <v>0.0</v>
       </c>
       <c r="C11" s="25">
@@ -4422,16 +4413,16 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>42776.0</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="29">
         <v>0.0</v>
       </c>
       <c r="C12" s="25">
@@ -4442,16 +4433,16 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>42777.0</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="29">
         <v>0.0</v>
       </c>
       <c r="C13" s="25">
@@ -4462,16 +4453,16 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>42778.0</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="36">
         <v>0.0</v>
       </c>
       <c r="C14" s="25">
@@ -4482,16 +4473,16 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>42779.0</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="29">
         <v>0.0</v>
       </c>
       <c r="C15" s="25">
@@ -4502,16 +4493,16 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>42780.0</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="29">
         <v>0.0</v>
       </c>
       <c r="C16" s="25">
@@ -4522,16 +4513,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>42781.0</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="29">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -4542,16 +4533,16 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>42782.0</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="29">
         <v>0.0</v>
       </c>
       <c r="C18" s="25">
@@ -4562,16 +4553,16 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>42783.0</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="29">
         <v>0.0</v>
       </c>
       <c r="C19" s="25">
@@ -4582,16 +4573,16 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>42784.0</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="29">
         <v>0.0</v>
       </c>
       <c r="C20" s="25">
@@ -4602,16 +4593,16 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>42785.0</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="36">
         <v>0.0</v>
       </c>
       <c r="C21" s="25">
@@ -4622,16 +4613,16 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>42786.0</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="29">
         <v>0.0</v>
       </c>
       <c r="C22" s="25">
@@ -4642,16 +4633,16 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>42787.0</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="29">
         <v>0.0</v>
       </c>
       <c r="C23" s="25">
@@ -4662,16 +4653,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>42788.0</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="29">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -4682,13 +4673,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>42789.0</v>
       </c>
       <c r="B25" s="23">
@@ -4702,13 +4693,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>42790.0</v>
       </c>
       <c r="B26" s="23">
@@ -4722,13 +4713,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>42791.0</v>
       </c>
       <c r="B27" s="23">
@@ -4742,13 +4733,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>42792.0</v>
       </c>
       <c r="B28" s="23">
@@ -4762,13 +4753,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>42793.0</v>
       </c>
       <c r="B29" s="23">
@@ -4782,13 +4773,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>42794.0</v>
       </c>
       <c r="B30" s="23">
@@ -4802,27 +4793,27 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="40"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="42"/>
     </row>
     <row r="32">
-      <c r="A32" s="40"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33">
-      <c r="A33" s="40"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -4846,38 +4837,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="26">
         <v>42430.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -4888,13 +4880,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>42431.0</v>
       </c>
       <c r="B4" s="23">
@@ -4908,13 +4900,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>42432.0</v>
       </c>
       <c r="B5" s="23">
@@ -4928,13 +4920,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>42433.0</v>
       </c>
       <c r="B6" s="23">
@@ -4948,13 +4940,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>42434.0</v>
       </c>
       <c r="B7" s="23">
@@ -4968,13 +4960,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>42435.0</v>
       </c>
       <c r="B8" s="23">
@@ -4988,13 +4980,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>42436.0</v>
       </c>
       <c r="B9" s="23">
@@ -5008,16 +5000,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>42437.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -5028,13 +5020,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>42438.0</v>
       </c>
       <c r="B11" s="23">
@@ -5048,13 +5040,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>42439.0</v>
       </c>
       <c r="B12" s="23">
@@ -5068,13 +5060,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>42440.0</v>
       </c>
       <c r="B13" s="23">
@@ -5088,13 +5080,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>42441.0</v>
       </c>
       <c r="B14" s="23">
@@ -5108,13 +5100,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>42442.0</v>
       </c>
       <c r="B15" s="23">
@@ -5128,13 +5120,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>42443.0</v>
       </c>
       <c r="B16" s="23">
@@ -5148,16 +5140,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>42444.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -5168,13 +5160,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>42445.0</v>
       </c>
       <c r="B18" s="23">
@@ -5188,13 +5180,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>42446.0</v>
       </c>
       <c r="B19" s="23">
@@ -5208,13 +5200,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>42447.0</v>
       </c>
       <c r="B20" s="23">
@@ -5228,13 +5220,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>42448.0</v>
       </c>
       <c r="B21" s="23">
@@ -5248,13 +5240,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>42449.0</v>
       </c>
       <c r="B22" s="23">
@@ -5268,13 +5260,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>42450.0</v>
       </c>
       <c r="B23" s="23">
@@ -5288,16 +5280,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>42451.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -5308,13 +5300,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>42452.0</v>
       </c>
       <c r="B25" s="23">
@@ -5328,13 +5320,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>42453.0</v>
       </c>
       <c r="B26" s="23">
@@ -5348,7 +5340,7 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -5368,13 +5360,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>42455.0</v>
       </c>
       <c r="B28" s="23">
@@ -5388,13 +5380,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>42456.0</v>
       </c>
       <c r="B29" s="23">
@@ -5408,13 +5400,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>42457.0</v>
       </c>
       <c r="B30" s="23">
@@ -5428,16 +5420,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>42458.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -5448,13 +5440,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>42459.0</v>
       </c>
       <c r="B32" s="23">
@@ -5468,13 +5460,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="30">
+      <c r="A33" s="31">
         <v>42460.0</v>
       </c>
       <c r="B33" s="23">
@@ -5488,7 +5480,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -5512,38 +5504,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="26">
         <v>42461.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -5554,13 +5547,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>42462.0</v>
       </c>
       <c r="B4" s="23">
@@ -5574,13 +5567,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>42463.0</v>
       </c>
       <c r="B5" s="23">
@@ -5594,13 +5587,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>42464.0</v>
       </c>
       <c r="B6" s="23">
@@ -5614,13 +5607,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>42465.0</v>
       </c>
       <c r="B7" s="23">
@@ -5634,13 +5627,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>42466.0</v>
       </c>
       <c r="B8" s="23">
@@ -5654,13 +5647,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>42467.0</v>
       </c>
       <c r="B9" s="23">
@@ -5674,16 +5667,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>42468.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -5694,13 +5687,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>42469.0</v>
       </c>
       <c r="B11" s="23">
@@ -5714,13 +5707,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>42470.0</v>
       </c>
       <c r="B12" s="23">
@@ -5734,13 +5727,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>42471.0</v>
       </c>
       <c r="B13" s="23">
@@ -5754,13 +5747,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>42472.0</v>
       </c>
       <c r="B14" s="23">
@@ -5774,13 +5767,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>42473.0</v>
       </c>
       <c r="B15" s="23">
@@ -5794,13 +5787,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>42474.0</v>
       </c>
       <c r="B16" s="23">
@@ -5814,16 +5807,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>42475.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -5834,13 +5827,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>42476.0</v>
       </c>
       <c r="B18" s="23">
@@ -5854,13 +5847,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>42477.0</v>
       </c>
       <c r="B19" s="23">
@@ -5874,13 +5867,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>42478.0</v>
       </c>
       <c r="B20" s="23">
@@ -5894,13 +5887,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>42479.0</v>
       </c>
       <c r="B21" s="23">
@@ -5914,7 +5907,7 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -5934,13 +5927,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>42481.0</v>
       </c>
       <c r="B23" s="23">
@@ -5954,16 +5947,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>42482.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -5974,13 +5967,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>42483.0</v>
       </c>
       <c r="B25" s="23">
@@ -5994,13 +5987,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>42484.0</v>
       </c>
       <c r="B26" s="23">
@@ -6014,13 +6007,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>42485.0</v>
       </c>
       <c r="B27" s="23">
@@ -6034,13 +6027,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>42486.0</v>
       </c>
       <c r="B28" s="23">
@@ -6054,13 +6047,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>42487.0</v>
       </c>
       <c r="B29" s="23">
@@ -6074,13 +6067,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>42488.0</v>
       </c>
       <c r="B30" s="23">
@@ -6094,16 +6087,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>42489.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -6114,13 +6107,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>42490.0</v>
       </c>
       <c r="B32" s="23">
@@ -6134,13 +6127,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -6164,38 +6157,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42491.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -6206,13 +6200,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42492.0</v>
       </c>
       <c r="B4" s="23">
@@ -6226,13 +6220,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42493.0</v>
       </c>
       <c r="B5" s="23">
@@ -6246,13 +6240,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42494.0</v>
       </c>
       <c r="B6" s="23">
@@ -6266,13 +6260,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42495.0</v>
       </c>
       <c r="B7" s="23">
@@ -6286,13 +6280,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42496.0</v>
       </c>
       <c r="B8" s="23">
@@ -6306,13 +6300,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42497.0</v>
       </c>
       <c r="B9" s="23">
@@ -6326,16 +6320,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42498.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -6346,13 +6340,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42499.0</v>
       </c>
       <c r="B11" s="23">
@@ -6366,13 +6360,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42500.0</v>
       </c>
       <c r="B12" s="23">
@@ -6386,13 +6380,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42501.0</v>
       </c>
       <c r="B13" s="23">
@@ -6406,13 +6400,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42502.0</v>
       </c>
       <c r="B14" s="23">
@@ -6426,13 +6420,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42503.0</v>
       </c>
       <c r="B15" s="23">
@@ -6446,13 +6440,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42504.0</v>
       </c>
       <c r="B16" s="23">
@@ -6466,16 +6460,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42505.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -6486,13 +6480,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42506.0</v>
       </c>
       <c r="B18" s="23">
@@ -6506,13 +6500,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42507.0</v>
       </c>
       <c r="B19" s="23">
@@ -6526,13 +6520,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42508.0</v>
       </c>
       <c r="B20" s="23">
@@ -6546,13 +6540,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42509.0</v>
       </c>
       <c r="B21" s="23">
@@ -6566,13 +6560,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42510.0</v>
       </c>
       <c r="B22" s="23">
@@ -6586,13 +6580,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42511.0</v>
       </c>
       <c r="B23" s="23">
@@ -6606,16 +6600,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42512.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -6626,13 +6620,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42513.0</v>
       </c>
       <c r="B25" s="23">
@@ -6646,13 +6640,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42514.0</v>
       </c>
       <c r="B26" s="23">
@@ -6666,13 +6660,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42515.0</v>
       </c>
       <c r="B27" s="23">
@@ -6686,13 +6680,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42516.0</v>
       </c>
       <c r="B28" s="23">
@@ -6706,13 +6700,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42517.0</v>
       </c>
       <c r="B29" s="23">
@@ -6726,13 +6720,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42518.0</v>
       </c>
       <c r="B30" s="23">
@@ -6746,16 +6740,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42519.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -6766,13 +6760,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42520.0</v>
       </c>
       <c r="B32" s="23">
@@ -6786,13 +6780,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21">
+      <c r="A33" s="28">
         <v>42521.0</v>
       </c>
       <c r="B33" s="23">
@@ -6806,7 +6800,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -6830,38 +6824,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42522.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -6872,13 +6867,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42523.0</v>
       </c>
       <c r="B4" s="23">
@@ -6892,13 +6887,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42524.0</v>
       </c>
       <c r="B5" s="23">
@@ -6912,13 +6907,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42525.0</v>
       </c>
       <c r="B6" s="23">
@@ -6932,13 +6927,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42526.0</v>
       </c>
       <c r="B7" s="23">
@@ -6952,13 +6947,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42527.0</v>
       </c>
       <c r="B8" s="23">
@@ -6972,13 +6967,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42528.0</v>
       </c>
       <c r="B9" s="23">
@@ -6992,16 +6987,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42529.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -7012,13 +7007,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42530.0</v>
       </c>
       <c r="B11" s="23">
@@ -7032,13 +7027,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42531.0</v>
       </c>
       <c r="B12" s="23">
@@ -7052,13 +7047,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42532.0</v>
       </c>
       <c r="B13" s="23">
@@ -7072,13 +7067,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42533.0</v>
       </c>
       <c r="B14" s="23">
@@ -7092,13 +7087,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42534.0</v>
       </c>
       <c r="B15" s="23">
@@ -7112,13 +7107,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42535.0</v>
       </c>
       <c r="B16" s="23">
@@ -7132,16 +7127,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42536.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -7152,13 +7147,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42537.0</v>
       </c>
       <c r="B18" s="23">
@@ -7172,13 +7167,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42538.0</v>
       </c>
       <c r="B19" s="23">
@@ -7192,13 +7187,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42539.0</v>
       </c>
       <c r="B20" s="23">
@@ -7212,13 +7207,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42540.0</v>
       </c>
       <c r="B21" s="23">
@@ -7232,13 +7227,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42541.0</v>
       </c>
       <c r="B22" s="23">
@@ -7252,13 +7247,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42542.0</v>
       </c>
       <c r="B23" s="23">
@@ -7272,16 +7267,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42543.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -7292,13 +7287,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42544.0</v>
       </c>
       <c r="B25" s="23">
@@ -7312,13 +7307,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42545.0</v>
       </c>
       <c r="B26" s="23">
@@ -7332,13 +7327,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42546.0</v>
       </c>
       <c r="B27" s="23">
@@ -7352,13 +7347,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42547.0</v>
       </c>
       <c r="B28" s="23">
@@ -7372,13 +7367,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42548.0</v>
       </c>
       <c r="B29" s="23">
@@ -7392,13 +7387,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42549.0</v>
       </c>
       <c r="B30" s="23">
@@ -7412,16 +7407,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42550.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -7432,13 +7427,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42551.0</v>
       </c>
       <c r="B32" s="23">
@@ -7452,13 +7447,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -7482,38 +7477,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42552.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -7524,13 +7520,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42553.0</v>
       </c>
       <c r="B4" s="23">
@@ -7544,13 +7540,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42554.0</v>
       </c>
       <c r="B5" s="23">
@@ -7564,13 +7560,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42555.0</v>
       </c>
       <c r="B6" s="23">
@@ -7584,13 +7580,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42556.0</v>
       </c>
       <c r="B7" s="23">
@@ -7604,13 +7600,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42557.0</v>
       </c>
       <c r="B8" s="23">
@@ -7624,13 +7620,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42558.0</v>
       </c>
       <c r="B9" s="23">
@@ -7644,16 +7640,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42559.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -7664,13 +7660,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42560.0</v>
       </c>
       <c r="B11" s="23">
@@ -7684,13 +7680,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42561.0</v>
       </c>
       <c r="B12" s="23">
@@ -7704,13 +7700,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42562.0</v>
       </c>
       <c r="B13" s="23">
@@ -7724,13 +7720,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42563.0</v>
       </c>
       <c r="B14" s="23">
@@ -7744,13 +7740,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42564.0</v>
       </c>
       <c r="B15" s="23">
@@ -7764,13 +7760,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42565.0</v>
       </c>
       <c r="B16" s="23">
@@ -7784,16 +7780,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42566.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -7804,13 +7800,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42567.0</v>
       </c>
       <c r="B18" s="23">
@@ -7824,13 +7820,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42568.0</v>
       </c>
       <c r="B19" s="23">
@@ -7844,13 +7840,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42569.0</v>
       </c>
       <c r="B20" s="23">
@@ -7864,13 +7860,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42570.0</v>
       </c>
       <c r="B21" s="23">
@@ -7884,13 +7880,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42571.0</v>
       </c>
       <c r="B22" s="23">
@@ -7904,13 +7900,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42572.0</v>
       </c>
       <c r="B23" s="23">
@@ -7924,16 +7920,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42573.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -7944,13 +7940,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42574.0</v>
       </c>
       <c r="B25" s="23">
@@ -7964,13 +7960,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42575.0</v>
       </c>
       <c r="B26" s="23">
@@ -7984,13 +7980,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42576.0</v>
       </c>
       <c r="B27" s="23">
@@ -8004,13 +8000,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42577.0</v>
       </c>
       <c r="B28" s="23">
@@ -8024,13 +8020,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42578.0</v>
       </c>
       <c r="B29" s="23">
@@ -8044,13 +8040,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42579.0</v>
       </c>
       <c r="B30" s="23">
@@ -8064,16 +8060,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42580.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -8084,13 +8080,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42581.0</v>
       </c>
       <c r="B32" s="23">
@@ -8104,13 +8100,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42">
+      <c r="A33" s="44">
         <v>42582.0</v>
       </c>
       <c r="B33" s="23">
@@ -8124,7 +8120,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
@@ -8148,38 +8144,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="str">
+        <f>YTD!B1</f>
+        <v>&lt;year&gt;</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>42583.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>0.0</v>
       </c>
       <c r="C3" s="37">
@@ -8190,13 +8187,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>42584.0</v>
       </c>
       <c r="B4" s="23">
@@ -8210,13 +8207,13 @@
         <f>+C4/2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="30" t="str">
         <f t="array" ref="E4">AVERAGE( IF( B3:B4 &lt;&gt; 0 , B3:B4 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>42585.0</v>
       </c>
       <c r="B5" s="23">
@@ -8230,13 +8227,13 @@
         <f>+C5/3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="30" t="str">
         <f t="array" ref="E5">AVERAGE( IF( B3:B5 &lt;&gt; 0 , B3:B5 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>42586.0</v>
       </c>
       <c r="B6" s="23">
@@ -8250,13 +8247,13 @@
         <f>+C6/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="30" t="str">
         <f t="array" ref="E6">AVERAGE( IF( B3:B6 &lt;&gt; 0 , B3:B6 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>42587.0</v>
       </c>
       <c r="B7" s="23">
@@ -8270,13 +8267,13 @@
         <f>+C7/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="30" t="str">
         <f t="array" ref="E7">AVERAGE( IF( B3:B7 &lt;&gt; 0 , B3:B7 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>42588.0</v>
       </c>
       <c r="B8" s="23">
@@ -8290,13 +8287,13 @@
         <f>+C8/6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="30" t="str">
         <f t="array" ref="E8">AVERAGE( IF( B3:B8 &lt;&gt; 0 , B3:B8 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="44">
         <v>42589.0</v>
       </c>
       <c r="B9" s="23">
@@ -8310,16 +8307,16 @@
         <f>+C9/7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="30" t="str">
         <f t="array" ref="E9">AVERAGE( IF( B3:B9 &lt;&gt; 0 , B3:B9 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="28">
         <v>42590.0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="19">
         <v>0.0</v>
       </c>
       <c r="C10" s="25">
@@ -8330,13 +8327,13 @@
         <f>+C10/8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="30" t="str">
         <f t="array" ref="E10">AVERAGE( IF( B3:B10 &lt;&gt; 0 , B3:B10 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>42591.0</v>
       </c>
       <c r="B11" s="23">
@@ -8350,13 +8347,13 @@
         <f>+C11/9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="30" t="str">
         <f t="array" ref="E11">AVERAGE( IF( B3:B11 &lt;&gt; 0 , B3:B11 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="28">
         <v>42592.0</v>
       </c>
       <c r="B12" s="23">
@@ -8370,13 +8367,13 @@
         <f>+C12/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="30" t="str">
         <f t="array" ref="E12">AVERAGE( IF( B3:B12 &lt;&gt; 0 , B3:B12 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="44">
         <v>42593.0</v>
       </c>
       <c r="B13" s="23">
@@ -8390,13 +8387,13 @@
         <f>+C13/11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="30" t="str">
         <f t="array" ref="E13">AVERAGE( IF( B3:B13 &lt;&gt; 0 , B3:B13 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>42594.0</v>
       </c>
       <c r="B14" s="23">
@@ -8410,13 +8407,13 @@
         <f>+C14/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="30" t="str">
         <f t="array" ref="E14">AVERAGE( IF( B3:B14 &lt;&gt; 0 , B3:B14 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>42595.0</v>
       </c>
       <c r="B15" s="23">
@@ -8430,13 +8427,13 @@
         <f>+C15/13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="30" t="str">
         <f t="array" ref="E15">AVERAGE( IF( B3:B15 &lt;&gt; 0 , B3:B15 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>42596.0</v>
       </c>
       <c r="B16" s="23">
@@ -8450,16 +8447,16 @@
         <f>+C16/14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="30" t="str">
         <f t="array" ref="E16">AVERAGE( IF( B3:B16 &lt;&gt; 0 , B3:B16 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="44">
         <v>42597.0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>0.0</v>
       </c>
       <c r="C17" s="25">
@@ -8470,13 +8467,13 @@
         <f>+C17/15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="30" t="str">
         <f t="array" ref="E17">AVERAGE( IF( B3:B17 &lt;&gt; 0 , B3:B17 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>42598.0</v>
       </c>
       <c r="B18" s="23">
@@ -8490,13 +8487,13 @@
         <f>+C18/16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="30" t="str">
         <f t="array" ref="E18">AVERAGE( IF( B3:B18 &lt;&gt; 0 , B3:B18 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>42599.0</v>
       </c>
       <c r="B19" s="23">
@@ -8510,13 +8507,13 @@
         <f>+C19/17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="30" t="str">
         <f t="array" ref="E19">AVERAGE( IF( B3:B19 &lt;&gt; 0 , B3:B19 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="28">
         <v>42600.0</v>
       </c>
       <c r="B20" s="23">
@@ -8530,13 +8527,13 @@
         <f>+C20/18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="30" t="str">
         <f t="array" ref="E20">AVERAGE( IF( B3:B20 &lt;&gt; 0 , B3:B20 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>42601.0</v>
       </c>
       <c r="B21" s="23">
@@ -8550,13 +8547,13 @@
         <f>+C21/19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="30" t="str">
         <f t="array" ref="E21">AVERAGE( IF( B3:B21 &lt;&gt; 0 , B3:B21 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="28">
         <v>42602.0</v>
       </c>
       <c r="B22" s="23">
@@ -8570,13 +8567,13 @@
         <f>+C22/20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="30" t="str">
         <f t="array" ref="E22">AVERAGE( IF( B3:B22 &lt;&gt; 0 , B3:B22 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>42603.0</v>
       </c>
       <c r="B23" s="23">
@@ -8590,16 +8587,16 @@
         <f>+C23/21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="30" t="str">
         <f t="array" ref="E23">AVERAGE( IF( B3:B23 &lt;&gt; 0 , B3:B23 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="28">
         <v>42604.0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="19">
         <v>0.0</v>
       </c>
       <c r="C24" s="25">
@@ -8610,13 +8607,13 @@
         <f>+C24/22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="30" t="str">
         <f t="array" ref="E24">AVERAGE( IF( B3:B24 &lt;&gt; 0 , B3:B24 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>42605.0</v>
       </c>
       <c r="B25" s="23">
@@ -8630,13 +8627,13 @@
         <f>+C25/23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="30" t="str">
         <f t="array" ref="E25">AVERAGE( IF( B3:B25 &lt;&gt; 0 , B3:B25 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="28">
         <v>42606.0</v>
       </c>
       <c r="B26" s="23">
@@ -8650,13 +8647,13 @@
         <f>+C26/24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="30" t="str">
         <f t="array" ref="E26">AVERAGE( IF( B3:B26 &lt;&gt; 0 , B3:B26 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>42607.0</v>
       </c>
       <c r="B27" s="23">
@@ -8670,13 +8667,13 @@
         <f>+C27/25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="30" t="str">
         <f t="array" ref="E27">AVERAGE( IF( B3:B27 &lt;&gt; 0 , B3:B27 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="28">
         <v>42608.0</v>
       </c>
       <c r="B28" s="23">
@@ -8690,13 +8687,13 @@
         <f>+C28/26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="30" t="str">
         <f t="array" ref="E28">AVERAGE( IF( B3:B28 &lt;&gt; 0 , B3:B28 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>42609.0</v>
       </c>
       <c r="B29" s="23">
@@ -8710,13 +8707,13 @@
         <f>+C29/27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="30" t="str">
         <f t="array" ref="E29">AVERAGE( IF( B3:B29 &lt;&gt; 0 , B3:B29 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="28">
         <v>42610.0</v>
       </c>
       <c r="B30" s="23">
@@ -8730,16 +8727,16 @@
         <f>+C30/28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="30" t="str">
         <f t="array" ref="E30">AVERAGE( IF( B3:B30 &lt;&gt; 0 , B3:B30 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42">
+      <c r="A31" s="44">
         <v>42611.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
       <c r="C31" s="25">
@@ -8750,13 +8747,13 @@
         <f>+C31/29</f>
         <v>0</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="30" t="str">
         <f t="array" ref="E31">AVERAGE( IF( B3:B31 &lt;&gt; 0 , B3:B31 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="28">
         <v>42612.0</v>
       </c>
       <c r="B32" s="23">
@@ -8770,13 +8767,13 @@
         <f>+C32/30</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="30" t="str">
         <f t="array" ref="E32">AVERAGE( IF( B3:B32 &lt;&gt; 0 , B3:B32 ) )</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42">
+      <c r="A33" s="44">
         <v>42613.0</v>
       </c>
       <c r="B33" s="23">
@@ -8790,7 +8787,7 @@
         <f>+C33/31</f>
         <v>0</v>
       </c>
-      <c r="E33" s="39" t="str">
+      <c r="E33" s="40" t="str">
         <f t="array" ref="E33">AVERAGE( IF( B3:B33 &lt;&gt; 0 , B3:B33 ) )</f>
         <v>#DIV/0!</v>
       </c>
